--- a/open-data/gpu-sharing/Dataset.xlsx
+++ b/open-data/gpu-sharing/Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://efutureway-my.sharepoint.com/personal/aray_futurewei_com/Documents/Desktop/Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://efutureway-my.sharepoint.com/personal/aray_futurewei_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8679D457-488B-4CD8-A1E9-B247ABF01789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AD6F0-65C7-4813-9588-277AC392412D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8679D457-488B-4CD8-A1E9-B247ABF01789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DC8D0E-7DF2-4E77-8FBF-DA572D91D540}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E20F7662-201F-45D8-9F21-97F79CA043CC}"/>
   </bookViews>
@@ -47,192 +47,6 @@
   </si>
   <si>
     <t>Epoch</t>
-  </si>
-  <si>
-    <t>Batch Size</t>
-  </si>
-  <si>
-    <t>Runtime Environment</t>
-  </si>
-  <si>
-    <t>CPU Utilization percent range</t>
-  </si>
-  <si>
-    <t>Max. CPU Utilization percent</t>
-  </si>
-  <si>
-    <t>Min. CPU Utilization percent</t>
-  </si>
-  <si>
-    <t>GPU Utilization percent range</t>
-  </si>
-  <si>
-    <t>Max. GPU Utilization percent</t>
-  </si>
-  <si>
-    <t>Min. GPU Utilization percent</t>
-  </si>
-  <si>
-    <t>System Memory Utilization percent range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max. System Memory Utilization percent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min. System Memory Utilization percent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max. Process Memory in Use (non swap) </t>
-  </si>
-  <si>
-    <t>Process Memory in Use (non swap) percent</t>
-  </si>
-  <si>
-    <t>CPU Threads</t>
-  </si>
-  <si>
-    <t>GPU Temp. range</t>
-  </si>
-  <si>
-    <t>Max. GPU Temp.</t>
-  </si>
-  <si>
-    <t>Min. GPU Temp</t>
-  </si>
-  <si>
-    <t>GPU Time spent accessing memory percent range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max. GPU Time spent accessing memory percent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min. GPU Time spent accessing memory percent </t>
-  </si>
-  <si>
-    <t>Max. GPU Memory Allocated percent</t>
-  </si>
-  <si>
-    <t>GPU Power Usage percent range</t>
-  </si>
-  <si>
-    <t>Max. GPU Power Usage percent</t>
-  </si>
-  <si>
-    <t>Min. GPU Power Usage percent</t>
-  </si>
-  <si>
-    <t>System CPU times_user</t>
-  </si>
-  <si>
-    <t>System CPU times_nice</t>
-  </si>
-  <si>
-    <t>System CPU times_system</t>
-  </si>
-  <si>
-    <t>System CPU times_idle</t>
-  </si>
-  <si>
-    <t>System CPU times_iowait</t>
-  </si>
-  <si>
-    <t>System CPU times_irq</t>
-  </si>
-  <si>
-    <t>System CPU times_softirq</t>
-  </si>
-  <si>
-    <t>System CPU times_steal</t>
-  </si>
-  <si>
-    <t>System CPU times_guest</t>
-  </si>
-  <si>
-    <t>System CPU times_guest_nice</t>
-  </si>
-  <si>
-    <t>Cores in System</t>
-  </si>
-  <si>
-    <t>CPU Statistics_ctx_switches</t>
-  </si>
-  <si>
-    <t>CPU Statistics_interrupts</t>
-  </si>
-  <si>
-    <t>CPU Statistics_soft_interrupts</t>
-  </si>
-  <si>
-    <t>CPU Statistics_syscalls</t>
-  </si>
-  <si>
-    <t>System memory usage_total</t>
-  </si>
-  <si>
-    <t>System memory usage_available</t>
-  </si>
-  <si>
-    <t>System memory usage_percent</t>
-  </si>
-  <si>
-    <t>System memory usage_used</t>
-  </si>
-  <si>
-    <t>System memory usage_free</t>
-  </si>
-  <si>
-    <t>System memory usage_active</t>
-  </si>
-  <si>
-    <t>System memory usage_inactive</t>
-  </si>
-  <si>
-    <t>System memory usage_buffers</t>
-  </si>
-  <si>
-    <t>System memory usage_cached</t>
-  </si>
-  <si>
-    <t>System memory usage_shared</t>
-  </si>
-  <si>
-    <t>System memory usage_slab</t>
-  </si>
-  <si>
-    <t>Disk usage_total</t>
-  </si>
-  <si>
-    <t>Disk usage_used</t>
-  </si>
-  <si>
-    <t>Disk usage_free</t>
-  </si>
-  <si>
-    <t>Disk usage_percent</t>
-  </si>
-  <si>
-    <t>Network IO_bytes_sent</t>
-  </si>
-  <si>
-    <t>Network IO_bytes_received</t>
-  </si>
-  <si>
-    <t>Network IO_packets_sent</t>
-  </si>
-  <si>
-    <t>Network IO_packets_received</t>
-  </si>
-  <si>
-    <t>Network IO_errin</t>
-  </si>
-  <si>
-    <t>Network IO_errout</t>
-  </si>
-  <si>
-    <t>Network IO_dropin</t>
-  </si>
-  <si>
-    <t>Network IO_dropout</t>
   </si>
   <si>
     <t>MobileNet</t>
@@ -311,6 +125,192 @@
   </si>
   <si>
     <t>Cart Pole Problem</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Run_Env</t>
+  </si>
+  <si>
+    <t>CPU_Util_%_ran</t>
+  </si>
+  <si>
+    <t>Max_CPU_Util_%</t>
+  </si>
+  <si>
+    <t>Min_CPU_Util_%</t>
+  </si>
+  <si>
+    <t>GPU_Util_%_ran</t>
+  </si>
+  <si>
+    <t>MGUP</t>
+  </si>
+  <si>
+    <t>Min_GPU_Util_%</t>
+  </si>
+  <si>
+    <t>Sys_Mem_Util_%_ran</t>
+  </si>
+  <si>
+    <t>Max_Sys_Mem_Util_%</t>
+  </si>
+  <si>
+    <t>Min_Sys_Mem_Util_%</t>
+  </si>
+  <si>
+    <t>MaPMiU(non swap)</t>
+  </si>
+  <si>
+    <t>PMiU(non swap)_%</t>
+  </si>
+  <si>
+    <t>CPU_Thds</t>
+  </si>
+  <si>
+    <t>GPU_Temp_ran</t>
+  </si>
+  <si>
+    <t>Max_GPU_Temp</t>
+  </si>
+  <si>
+    <t>Min_GPU_Temp</t>
+  </si>
+  <si>
+    <t>GTSAMPR</t>
+  </si>
+  <si>
+    <t>MaGTSAMP</t>
+  </si>
+  <si>
+    <t>MiGTSAMP</t>
+  </si>
+  <si>
+    <t>MGMAP</t>
+  </si>
+  <si>
+    <t>GPUPR</t>
+  </si>
+  <si>
+    <t>MaGPUPR</t>
+  </si>
+  <si>
+    <t>MiGPUPR</t>
+  </si>
+  <si>
+    <t>SCT_user</t>
+  </si>
+  <si>
+    <t>SCT_nice</t>
+  </si>
+  <si>
+    <t>SCT_sys</t>
+  </si>
+  <si>
+    <t>SCT_idle</t>
+  </si>
+  <si>
+    <t>SCT_iowait</t>
+  </si>
+  <si>
+    <t>SCT_irq</t>
+  </si>
+  <si>
+    <t>SCT_softirq</t>
+  </si>
+  <si>
+    <t>SCT_steal</t>
+  </si>
+  <si>
+    <t>SCT_guest</t>
+  </si>
+  <si>
+    <t>SCT_guest_nice</t>
+  </si>
+  <si>
+    <t>Cor_in_Sys</t>
+  </si>
+  <si>
+    <t>CS_ctx_switches</t>
+  </si>
+  <si>
+    <t>CS_interrupts</t>
+  </si>
+  <si>
+    <t>CS_soft_interrupts</t>
+  </si>
+  <si>
+    <t>CS_syscalls</t>
+  </si>
+  <si>
+    <t>SMU_total</t>
+  </si>
+  <si>
+    <t>SMU_available</t>
+  </si>
+  <si>
+    <t>SMU_percent</t>
+  </si>
+  <si>
+    <t>SMU_used</t>
+  </si>
+  <si>
+    <t>SMU_free</t>
+  </si>
+  <si>
+    <t>SMU_active</t>
+  </si>
+  <si>
+    <t>SMU_inactive</t>
+  </si>
+  <si>
+    <t>SMU_buffers</t>
+  </si>
+  <si>
+    <t>SMU_cached</t>
+  </si>
+  <si>
+    <t>SMU_shared</t>
+  </si>
+  <si>
+    <t>SMU_slab</t>
+  </si>
+  <si>
+    <t>DU_total</t>
+  </si>
+  <si>
+    <t>DU_used</t>
+  </si>
+  <si>
+    <t>DU_free</t>
+  </si>
+  <si>
+    <t>DU_percent</t>
+  </si>
+  <si>
+    <t>NIOB_sent</t>
+  </si>
+  <si>
+    <t>NIOB_received</t>
+  </si>
+  <si>
+    <t>NIOP_sent</t>
+  </si>
+  <si>
+    <t>NIO_received</t>
+  </si>
+  <si>
+    <t>NIO_errin</t>
+  </si>
+  <si>
+    <t>NIO_errout</t>
+  </si>
+  <si>
+    <t>NIO_dropin</t>
+  </si>
+  <si>
+    <t>NIO_dropout</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E07759B-F205-4013-85CF-9E3C183EAAB7}">
   <dimension ref="A1:BN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,190 +684,190 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AQ1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AR1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AT1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="AU1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="AV1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="AW1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="AX1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="AY1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AZ1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="BA1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="BB1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="BC1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="BD1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BE1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="BF1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="BG1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="BH1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="BI1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="BJ1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="BK1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="BL1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="BM1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BN1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -875,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -887,7 +887,7 @@
         <v>1024</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <f>H2-I2</f>
@@ -1081,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1093,7 +1093,7 @@
         <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <f>H3-I3</f>
@@ -1287,10 +1287,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G50" si="0">H4-I4</f>
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1505,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -1699,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1711,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -1905,10 +1905,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1917,7 +1917,7 @@
         <v>1024</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -2111,10 +2111,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -2123,7 +2123,7 @@
         <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -2317,10 +2317,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2329,7 +2329,7 @@
         <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -2523,10 +2523,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2535,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -2729,10 +2729,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -2935,10 +2935,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -2947,7 +2947,7 @@
         <v>1024</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -3141,10 +3141,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -3153,7 +3153,7 @@
         <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -3347,10 +3347,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -3359,7 +3359,7 @@
         <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -3553,10 +3553,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3565,7 +3565,7 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -3759,10 +3759,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -3771,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -3965,10 +3965,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -3977,7 +3977,7 @@
         <v>1024</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -4171,10 +4171,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -4183,7 +4183,7 @@
         <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -4377,10 +4377,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -4389,7 +4389,7 @@
         <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -4583,10 +4583,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -4595,7 +4595,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -4789,10 +4789,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -4801,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -4995,10 +4995,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -5007,7 +5007,7 @@
         <v>1024</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -5201,10 +5201,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -5213,7 +5213,7 @@
         <v>256</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -5407,10 +5407,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -5419,7 +5419,7 @@
         <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -5613,10 +5613,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -5625,7 +5625,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <f>H25-I25</f>
@@ -5819,10 +5819,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -5831,7 +5831,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
@@ -6025,10 +6025,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -6037,7 +6037,7 @@
         <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -6231,10 +6231,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -6243,7 +6243,7 @@
         <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
@@ -6437,10 +6437,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -6449,7 +6449,7 @@
         <v>256</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
@@ -6643,10 +6643,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -6655,7 +6655,7 @@
         <v>256</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
@@ -6849,10 +6849,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -6861,7 +6861,7 @@
         <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
@@ -7055,10 +7055,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -7067,7 +7067,7 @@
         <v>256</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
@@ -7261,10 +7261,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -7273,7 +7273,7 @@
         <v>256</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
@@ -7467,10 +7467,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -7479,7 +7479,7 @@
         <v>1024</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
@@ -7673,10 +7673,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -7685,7 +7685,7 @@
         <v>256</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
@@ -7879,10 +7879,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -7891,7 +7891,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
@@ -8085,10 +8085,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -8097,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
@@ -8291,10 +8291,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D38">
         <v>20</v>
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
@@ -8497,10 +8497,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -8509,7 +8509,7 @@
         <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
@@ -8703,10 +8703,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -8715,7 +8715,7 @@
         <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
@@ -8909,10 +8909,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -8921,7 +8921,7 @@
         <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
@@ -9115,10 +9115,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D42">
         <v>50</v>
@@ -9127,7 +9127,7 @@
         <v>1024</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
@@ -9321,10 +9321,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D43">
         <v>20000</v>
@@ -9333,7 +9333,7 @@
         <v>1024</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
@@ -9527,10 +9527,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D44">
         <v>20000</v>
@@ -9539,7 +9539,7 @@
         <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
@@ -9733,10 +9733,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D45">
         <v>20000</v>
@@ -9745,7 +9745,7 @@
         <v>128</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
@@ -9939,10 +9939,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>20000</v>
@@ -9951,7 +9951,7 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
@@ -10145,10 +10145,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D47">
         <v>20000</v>
@@ -10157,7 +10157,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
@@ -10351,10 +10351,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>5000</v>
@@ -10363,7 +10363,7 @@
         <v>3000</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
@@ -10557,10 +10557,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D49">
         <v>3000</v>
@@ -10569,7 +10569,7 @@
         <v>5000</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
@@ -10763,10 +10763,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>3000</v>
@@ -10775,7 +10775,7 @@
         <v>7000</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
